--- a/gRPC measures.xlsx
+++ b/gRPC measures.xlsx
@@ -5,19 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="100 FORA" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="100 MESMO PC" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="50 mesmo final" sheetId="3" state="hidden" r:id="rId4"/>
-    <sheet name="VarPessoasMESMA" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="String MESMA" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Long MESMA" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Normais FORA" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="VarPerson FORA" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Long FORA" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="String FORA" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Sheet11" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="VarPessoasMESMA" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="String MESMA" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Long MESMA" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Normais FORA" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="VarPerson FORA" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Long FORA" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="String FORA" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="64">
   <si>
     <t xml:space="preserve">Void</t>
   </si>
@@ -4156,6 +4157,717 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>287</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>246</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>258</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>259</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>443</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>433</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>423</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>426</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>444</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>424</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>439</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>441</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>455</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>867</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>862</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>890</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>896</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>877</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>892</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>902</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>871</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>872</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>894</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1808</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1758</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1781</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1881</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1793</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1808</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1839</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1788</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1811</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1739</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3385</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3465</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>3367</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>3359</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>3510</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>3440</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>3650</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>3916</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>3801</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>3933</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>4008</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -4164,7 +4876,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="2" style="0" width="5.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
@@ -4986,7 +5698,7 @@
   <dimension ref="A1:CY24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17775,6 +18487,971 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:CY3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="3" style="0" width="2.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="54" style="0" width="2.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="104" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA1" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="BB1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BQ1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BZ1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="CD1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CF1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CX1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CY1" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AZ17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -20348,7 +22025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -23700,14 +25377,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AZ21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -26592,14 +28269,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AZ3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AS1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -27094,7 +28771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -29285,715 +30962,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L18"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G1" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="H1" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I1" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="J1" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K1" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>109</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>108</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>115</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>112</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>112</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>115</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>221</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>230</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>215</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>217</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>235</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>287</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>246</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>258</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>259</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>443</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>433</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>423</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>426</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>444</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>424</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>439</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>441</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>455</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>867</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>862</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>890</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>896</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>877</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>892</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>902</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>871</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>872</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>894</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>1808</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>1758</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1781</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1881</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>1793</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>1808</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>1839</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>1788</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>1811</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>1739</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>3385</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>3465</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>3367</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>3359</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>3510</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>3440</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>3650</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>3916</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>3801</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>3933</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>4008</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/gRPC measures.xlsx
+++ b/gRPC measures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos\Documents\Code Storage\Java\EP-SistDistribuidos-RPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A5927378-C9E2-4C9A-A7CB-3392BFEEA436}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C009FF2E-2E75-4740-9BD3-2B01E5DD5F4E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100 FORA" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <sheet name="Long FORA" sheetId="10" r:id="rId10"/>
     <sheet name="String FORA" sheetId="11" r:id="rId11"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId12"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -10342,15 +10339,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>138114</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10385,15 +10382,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>71439</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>80964</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10514,15 +10511,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10557,15 +10554,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10636,59 +10633,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Página1"/>
-      <sheetName val="Graficos"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>void</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>Long</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>25.89</v>
-          </cell>
-          <cell r="B103">
-            <v>27.15</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>127.53901324296774</v>
-          </cell>
-          <cell r="B105">
-            <v>135.0269987966866</v>
-          </cell>
-          <cell r="C105">
-            <v>140.99720571770925</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108" t="str">
-            <v>Clasee</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="A210">
-            <v>25.71</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15672,7 +15616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
@@ -16664,7 +16608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DD25"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
@@ -33350,8 +33294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BD23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG29" sqref="AG29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
